--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.117659</v>
+        <v>1.141788666666667</v>
       </c>
       <c r="H2">
-        <v>12.352977</v>
+        <v>3.425366</v>
       </c>
       <c r="I2">
-        <v>0.411783455701328</v>
+        <v>0.2235063054668694</v>
       </c>
       <c r="J2">
-        <v>0.4117834557013281</v>
+        <v>0.2235063054668694</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N2">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q2">
-        <v>5.441261269808</v>
+        <v>0.5941270685264445</v>
       </c>
       <c r="R2">
-        <v>48.971351428272</v>
+        <v>5.347143616738</v>
       </c>
       <c r="S2">
-        <v>0.004207529487386674</v>
+        <v>0.0009177022229287732</v>
       </c>
       <c r="T2">
-        <v>0.004207529487386676</v>
+        <v>0.0009177022229287733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.117659</v>
+        <v>1.141788666666667</v>
       </c>
       <c r="H3">
-        <v>12.352977</v>
+        <v>3.425366</v>
       </c>
       <c r="I3">
-        <v>0.411783455701328</v>
+        <v>0.2235063054668694</v>
       </c>
       <c r="J3">
-        <v>0.4117834557013281</v>
+        <v>0.2235063054668694</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>317.889679</v>
       </c>
       <c r="O3">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P3">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q3">
-        <v>436.320432580487</v>
+        <v>120.9876109108349</v>
       </c>
       <c r="R3">
-        <v>3926.883893224383</v>
+        <v>1088.888498197514</v>
       </c>
       <c r="S3">
-        <v>0.337390725238321</v>
+        <v>0.1868802237122322</v>
       </c>
       <c r="T3">
-        <v>0.3373907252383211</v>
+        <v>0.1868802237122322</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.117659</v>
+        <v>1.141788666666667</v>
       </c>
       <c r="H4">
-        <v>12.352977</v>
+        <v>3.425366</v>
       </c>
       <c r="I4">
-        <v>0.411783455701328</v>
+        <v>0.2235063054668694</v>
       </c>
       <c r="J4">
-        <v>0.4117834557013281</v>
+        <v>0.2235063054668694</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N4">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O4">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P4">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q4">
-        <v>90.76490537432498</v>
+        <v>23.11786364132</v>
       </c>
       <c r="R4">
-        <v>816.8841483689249</v>
+        <v>208.06077277188</v>
       </c>
       <c r="S4">
-        <v>0.07018520097562034</v>
+        <v>0.03570837953170844</v>
       </c>
       <c r="T4">
-        <v>0.07018520097562037</v>
+        <v>0.03570837953170844</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>9.012444</v>
       </c>
       <c r="I5">
-        <v>0.3004276082303642</v>
+        <v>0.5880650598117267</v>
       </c>
       <c r="J5">
-        <v>0.3004276082303643</v>
+        <v>0.5880650598117266</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N5">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O5">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P5">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q5">
-        <v>3.969817355242667</v>
+        <v>1.563201402121334</v>
       </c>
       <c r="R5">
-        <v>35.72835619718401</v>
+        <v>14.068812619092</v>
       </c>
       <c r="S5">
-        <v>0.00306971541219749</v>
+        <v>0.00241455654456227</v>
       </c>
       <c r="T5">
-        <v>0.003069715412197491</v>
+        <v>0.002414556544562271</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>9.012444</v>
       </c>
       <c r="I6">
-        <v>0.3004276082303642</v>
+        <v>0.5880650598117267</v>
       </c>
       <c r="J6">
-        <v>0.3004276082303643</v>
+        <v>0.5880650598117266</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>317.889679</v>
       </c>
       <c r="O6">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P6">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q6">
         <v>318.3292144628307</v>
@@ -818,10 +818,10 @@
         <v>2864.962930165476</v>
       </c>
       <c r="S6">
-        <v>0.2461524066085248</v>
+        <v>0.4916985662010908</v>
       </c>
       <c r="T6">
-        <v>0.2461524066085249</v>
+        <v>0.4916985662010908</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>9.012444</v>
       </c>
       <c r="I7">
-        <v>0.3004276082303642</v>
+        <v>0.5880650598117267</v>
       </c>
       <c r="J7">
-        <v>0.3004276082303643</v>
+        <v>0.5880650598117266</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N7">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O7">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P7">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q7">
-        <v>66.21995870723333</v>
+        <v>60.82516480488001</v>
       </c>
       <c r="R7">
-        <v>595.9796283651</v>
+        <v>547.4264832439201</v>
       </c>
       <c r="S7">
-        <v>0.05120548620964192</v>
+        <v>0.0939519370660737</v>
       </c>
       <c r="T7">
-        <v>0.05120548620964194</v>
+        <v>0.09395193706607369</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.877766666666667</v>
+        <v>0.9625933333333334</v>
       </c>
       <c r="H8">
-        <v>8.6333</v>
+        <v>2.88778</v>
       </c>
       <c r="I8">
-        <v>0.2877889360683077</v>
+        <v>0.1884286347214039</v>
       </c>
       <c r="J8">
-        <v>0.2877889360683077</v>
+        <v>0.1884286347214039</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N8">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O8">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P8">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q8">
-        <v>3.802811332088889</v>
+        <v>0.500883194948889</v>
       </c>
       <c r="R8">
-        <v>34.22530198880001</v>
+        <v>4.507948754540001</v>
       </c>
       <c r="S8">
-        <v>0.002940575727086303</v>
+        <v>0.0007736756087756033</v>
       </c>
       <c r="T8">
-        <v>0.002940575727086304</v>
+        <v>0.0007736756087756033</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.877766666666667</v>
+        <v>0.9625933333333334</v>
       </c>
       <c r="H9">
-        <v>8.6333</v>
+        <v>2.88778</v>
       </c>
       <c r="I9">
-        <v>0.2877889360683077</v>
+        <v>0.1884286347214039</v>
       </c>
       <c r="J9">
-        <v>0.2877889360683077</v>
+        <v>0.1884286347214039</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>317.889679</v>
       </c>
       <c r="O9">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P9">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q9">
-        <v>304.9374406345222</v>
+        <v>101.9994952469578</v>
       </c>
       <c r="R9">
-        <v>2744.4369657107</v>
+        <v>917.9954572226201</v>
       </c>
       <c r="S9">
-        <v>0.2357970348524082</v>
+        <v>0.1575507471119028</v>
       </c>
       <c r="T9">
-        <v>0.2357970348524082</v>
+        <v>0.1575507471119028</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.877766666666667</v>
+        <v>0.9625933333333334</v>
       </c>
       <c r="H10">
-        <v>8.6333</v>
+        <v>2.88778</v>
       </c>
       <c r="I10">
-        <v>0.2877889360683077</v>
+        <v>0.1884286347214039</v>
       </c>
       <c r="J10">
-        <v>0.2877889360683077</v>
+        <v>0.1884286347214039</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N10">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O10">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P10">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q10">
-        <v>63.43415498694443</v>
+        <v>19.4896849756</v>
       </c>
       <c r="R10">
-        <v>570.9073948824999</v>
+        <v>175.4071647804</v>
       </c>
       <c r="S10">
-        <v>0.04905132548881319</v>
+        <v>0.03010421200072547</v>
       </c>
       <c r="T10">
-        <v>0.04905132548881321</v>
+        <v>0.03010421200072547</v>
       </c>
     </row>
   </sheetData>
